--- a/biology/Médecine/Daniel_Bacquelaine/Daniel_Bacquelaine.xlsx
+++ b/biology/Médecine/Daniel_Bacquelaine/Daniel_Bacquelaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Daniel Marie Alain Bacquelaine, né le 30 octobre 1952 à Liège est un homme politique belge wallon et français, membre du MR. 
@@ -513,9 +525,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après ses études de médecine à l'Université de Liège, le Dr Bacquelaine s'installe à Chaudfontaine en qualité de médecin généraliste[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après ses études de médecine à l'Université de Liège, le Dr Bacquelaine s'installe à Chaudfontaine en qualité de médecin généraliste.
 Parallèlement, il poursuit une carrière scientifique en qualité de Maître de stage en médecine générale. Auteur de nombreuses publications, il remplit des charges d'enseignement tant en Belgique qu’à l'étranger. Il est diplômé en Mésothérapie de l'Université de Bordeaux.
 Daniel Bacquelaine est également Président de la Société Scientifique Belge de Mésothérapie. Il sera également Vice-Président de la Société internationale de Mésothérapie entre 1996 et 2003.
 Il est membre de l'Assemblée parlementaire euroméditerranéenne et membre suppléant du Conseil interparlementaire consultatif du Benelux.
@@ -549,7 +563,9 @@
           <t>Carrière politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'université, il s'implique dans les mouvements libéraux étudiants. En réactivant la FELU (Fédération des Étudiants Libéraux de Liège), il mène notamment la fronde contre un projet de réforme porté par les deux ministres de l'Éducation nationale de l'époque, le francophone Antoine Humblet et le flamand Herman De Croo.
 Il commence sa carrière politique comme conseiller communal en 1983 à Chaudfontaine. Réélu en 1989, il devient Échevin des Finances, des Sports et du Thermalisme en 1989, avant de devenir Bourgmestre, le 8 octobre 1992 et Vice-Président de Liège-Métropole, la conférence des Bourgmestres de l'arrondissement de Liège.
@@ -562,8 +578,6 @@
 Il est à nouveau Président de la zone de police SECOVA depuis janvier 2021.
 Il dirige le Centre Jean Gol, le centre d'étude du Mouvement Réformateur, dont il est l'Administrateur-délégué.
 Président de la Fédération provinciale du MR de Liège de 2008 à 2021, Pierre-Yves Jeholet lui a succédé dans cette fonction le 22 novembre 2021.
-Scandale Nethys
-En 2021, Daniel Bacquelaine est visé par le scandale Nethys[2],[3],[4], Il serait une des mains invisibles de cette affaire tout comme Pierre-Yves Jeholet et Fabian Culot. Pour le PS, les noms de Jean-Claude Marcourt, Muriel Targnion et Jean-Pierre Hupkens.
 </t>
         </is>
       </c>
@@ -589,10 +603,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Scandale Nethys</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, Daniel Bacquelaine est visé par le scandale Nethys Il serait une des mains invisibles de cette affaire tout comme Pierre-Yves Jeholet et Fabian Culot. Pour le PS, les noms de Jean-Claude Marcourt, Muriel Targnion et Jean-Pierre Hupkens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daniel_Bacquelaine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Bacquelaine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Bacquelaine est Chevalier de l'Ordre de la Couronne et Chevalier de l'Ordre de Léopold.
 </t>
